--- a/data/trans_dic/P36B02_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.8973574333548029</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8478598743506349</v>
+        <v>0.8478598743506351</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9282758476905033</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8423934245184358</v>
+        <v>0.8431315686473221</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8783361103916263</v>
+        <v>0.8803486331545535</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8769688654784249</v>
+        <v>0.8787542984647799</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.805765968731549</v>
+        <v>0.8117069162966439</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9117736996714432</v>
+        <v>0.9127581175947516</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9080036388763845</v>
+        <v>0.9097676189574118</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9238640678108248</v>
+        <v>0.9233496249161276</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8496970949054115</v>
+        <v>0.849544459745425</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8914154530988541</v>
+        <v>0.8911185226265429</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9000073176281255</v>
+        <v>0.9006417129195579</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9076512192448946</v>
+        <v>0.9067160028309338</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8415675561979818</v>
+        <v>0.8403788711711885</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8996779994734305</v>
+        <v>0.8988080761072308</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9187735965024282</v>
+        <v>0.9183474495568439</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9157154205841143</v>
+        <v>0.9164062169964625</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8811096564675037</v>
+        <v>0.8803988379689071</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9453053211689388</v>
+        <v>0.9445401243215782</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9406667374850483</v>
+        <v>0.9415901428570732</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9506141060532106</v>
+        <v>0.9510394080451223</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8975398638721174</v>
+        <v>0.8982837050457108</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9212614400892816</v>
+        <v>0.9207375977267563</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9266720552731752</v>
+        <v>0.9267407850361086</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9303361438888622</v>
+        <v>0.9297289147895955</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8822442480285454</v>
+        <v>0.8816742411817995</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.9292563334715539</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.873347911639747</v>
+        <v>0.8733479116397472</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9444232290362946</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9254330500543956</v>
+        <v>0.9264618687934417</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9268896690705922</v>
+        <v>0.9240525393358557</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9119768924248662</v>
+        <v>0.9108184292344031</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8469176368861889</v>
+        <v>0.8467521797899261</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9293323484413945</v>
+        <v>0.9288804266321204</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9244180599540934</v>
+        <v>0.9236916093322731</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9296071356050968</v>
+        <v>0.930001605092043</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8783148276746104</v>
+        <v>0.8791140100459287</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9313662677119466</v>
+        <v>0.9320621539822225</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9309588227294395</v>
+        <v>0.9309582787307492</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9271242462883916</v>
+        <v>0.9259244608662158</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8707477699825723</v>
+        <v>0.8700714885468696</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9548139800026364</v>
+        <v>0.9539211416477743</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9588124728754253</v>
+        <v>0.9580003774155004</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9454546235762287</v>
+        <v>0.9450370069779551</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8951884020779686</v>
+        <v>0.8960726459308425</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9580409089036164</v>
+        <v>0.9575662183966447</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9540501817139845</v>
+        <v>0.9537443254095465</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9586196454414485</v>
+        <v>0.9577088689164861</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9099506134597335</v>
+        <v>0.9102626081479467</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9521270514277553</v>
+        <v>0.9521862857854747</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9530978307331256</v>
+        <v>0.9530749637877507</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9483318452083745</v>
+        <v>0.9483817102403352</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8984341114783877</v>
+        <v>0.897933346292658</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.9416256830556916</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.892037497400764</v>
+        <v>0.8920374974007641</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.9476301886222526</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9236494629640908</v>
+        <v>0.9263201539275111</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9385897024405263</v>
+        <v>0.9386353186720613</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9107155382168031</v>
+        <v>0.9128093857719791</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8448440026305776</v>
+        <v>0.8439915777723715</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.939314872301</v>
+        <v>0.9395233615516385</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9425168286855145</v>
+        <v>0.941773242784284</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.920584662457349</v>
+        <v>0.9231340683718481</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8740044713866801</v>
+        <v>0.8718030964954323</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.937022916514427</v>
+        <v>0.9377602317394486</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9460923536422957</v>
+        <v>0.9457906832099532</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9234828844360212</v>
+        <v>0.9230534779990762</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8655035636882751</v>
+        <v>0.8657528789213658</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9533852748967387</v>
+        <v>0.9549135457263469</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.967083602523831</v>
+        <v>0.9682297302454977</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9484936321694386</v>
+        <v>0.9472092100252664</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8900237980104468</v>
+        <v>0.8892616964430415</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9669862319981904</v>
+        <v>0.9666821139877979</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9717650944480486</v>
+        <v>0.9695002618731537</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9566780654080741</v>
+        <v>0.9564632114805223</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9085123312671879</v>
+        <v>0.9083878374262888</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9561903257476122</v>
+        <v>0.956623093535577</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.965735290807862</v>
+        <v>0.9645730010858244</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9483057855162672</v>
+        <v>0.948337913036104</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8942287346783483</v>
+        <v>0.8944961010396133</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.9246307012933321</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.8897083949157562</v>
+        <v>0.889708394915756</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9230390724081655</v>
+        <v>0.9213127032293968</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9081905490542418</v>
+        <v>0.9108417010566324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8879297129222974</v>
+        <v>0.8861314813544752</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8681714359809732</v>
+        <v>0.8654245800247636</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9232515791099055</v>
+        <v>0.9227852142772789</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.926948366265304</v>
+        <v>0.9261680969852029</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9081788886517347</v>
+        <v>0.9091330897102883</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.866749323739695</v>
+        <v>0.8659749210491255</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9332064010856874</v>
+        <v>0.9313880718071873</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9252370145488189</v>
+        <v>0.9259028242023548</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.905032759297425</v>
+        <v>0.9051094907899163</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.874327152181159</v>
+        <v>0.8736558272765497</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9657282285160101</v>
+        <v>0.9657893743438563</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9554516648267691</v>
+        <v>0.9565941257041656</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9395840036153802</v>
+        <v>0.9370243434458135</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.912017159518043</v>
+        <v>0.9111587286018866</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9716604109716706</v>
+        <v>0.9709029848452154</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9683661933459238</v>
+        <v>0.9664793369757322</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9546990864656132</v>
+        <v>0.9526879946798016</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9071752442557386</v>
+        <v>0.9062843557934415</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9634831587059965</v>
+        <v>0.9630722559919098</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9555303560156607</v>
+        <v>0.9569124707968364</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9398855690626268</v>
+        <v>0.9399890470650746</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.904598147052487</v>
+        <v>0.9041047411112227</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.9402546752390525</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.8893756321992208</v>
+        <v>0.8893756321992209</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9368427253538961</v>
@@ -1241,7 +1241,7 @@
         <v>0.928982608929639</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.8816281187858863</v>
+        <v>0.8816281187858864</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9203546811112893</v>
+        <v>0.9192995057407543</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9230852053739911</v>
+        <v>0.9236490836716973</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9072373365532801</v>
+        <v>0.9075082276209664</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.859536672046376</v>
+        <v>0.8601758323139909</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9348158840257496</v>
+        <v>0.9355032142738411</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9325364439695812</v>
+        <v>0.932778112323272</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9311987304841647</v>
+        <v>0.9318375733208457</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8789122119046037</v>
+        <v>0.8804753646091044</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9297055873295132</v>
+        <v>0.9303247811337307</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9305194904920513</v>
+        <v>0.931154044009644</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9224128710185803</v>
+        <v>0.9227428093150092</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8737569896582243</v>
+        <v>0.8739124867254038</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9390198337945077</v>
+        <v>0.9378963356598518</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9419998206932731</v>
+        <v>0.9417077118487998</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9265629012843413</v>
+        <v>0.926858678775674</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8859186487192392</v>
+        <v>0.885268305417134</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9512813280947746</v>
+        <v>0.9522199772266075</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9490983706956297</v>
+        <v>0.9490423823508647</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9470622346100135</v>
+        <v>0.9469987347752059</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8979522447862239</v>
+        <v>0.8985981625063422</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9419789366325166</v>
+        <v>0.9426597343710709</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9430189880066774</v>
+        <v>0.9427892913773636</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9348570827889693</v>
+        <v>0.9352619680183669</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.8900962642249606</v>
+        <v>0.8896483848674687</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>492077</v>
+        <v>492508</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>916123</v>
+        <v>918222</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>987461</v>
+        <v>989471</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>401867</v>
+        <v>404830</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>840959</v>
+        <v>841867</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1015970</v>
+        <v>1017944</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1162849</v>
+        <v>1162202</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>529854</v>
+        <v>529759</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1342894</v>
+        <v>1342447</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1945749</v>
+        <v>1947121</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2164451</v>
+        <v>2162221</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>944508</v>
+        <v>943174</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>525539</v>
+        <v>525031</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>958300</v>
+        <v>957856</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1031089</v>
+        <v>1031867</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>439444</v>
+        <v>439089</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>871886</v>
+        <v>871181</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1052517</v>
+        <v>1053550</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1196519</v>
+        <v>1197054</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>559688</v>
+        <v>560152</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1387856</v>
+        <v>1387067</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>2003396</v>
+        <v>2003545</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>2218547</v>
+        <v>2217099</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>990160</v>
+        <v>989521</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>996703</v>
+        <v>997811</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>905639</v>
+        <v>902867</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>828827</v>
+        <v>827775</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>813157</v>
+        <v>812998</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>982804</v>
+        <v>982326</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1007991</v>
+        <v>1007199</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>935626</v>
+        <v>936023</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>980067</v>
+        <v>980958</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1988048</v>
+        <v>1989533</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1924738</v>
+        <v>1924737</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1775721</v>
+        <v>1773423</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1807660</v>
+        <v>1806256</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1028346</v>
+        <v>1027385</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>936830</v>
+        <v>936036</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>859253</v>
+        <v>858873</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>859504</v>
+        <v>860353</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1013165</v>
+        <v>1012663</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1040302</v>
+        <v>1039969</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>964827</v>
+        <v>963910</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1015367</v>
+        <v>1015716</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2032363</v>
+        <v>2032489</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1970510</v>
+        <v>1970462</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1816340</v>
+        <v>1816435</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1865137</v>
+        <v>1864097</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1035960</v>
+        <v>1038955</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>830760</v>
+        <v>830800</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>747550</v>
+        <v>749269</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>884112</v>
+        <v>883219</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>933623</v>
+        <v>933830</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>825452</v>
+        <v>824801</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>708928</v>
+        <v>710892</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>915644</v>
+        <v>913338</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1982304</v>
+        <v>1983864</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1665984</v>
+        <v>1665453</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1469190</v>
+        <v>1468507</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1812469</v>
+        <v>1812991</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1069311</v>
+        <v>1071025</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>855980</v>
+        <v>856995</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>778560</v>
+        <v>777505</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>931391</v>
+        <v>930594</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>961126</v>
+        <v>960824</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>851068</v>
+        <v>849084</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>736723</v>
+        <v>736558</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>951796</v>
+        <v>951665</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2022853</v>
+        <v>2023769</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1700574</v>
+        <v>1698527</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1508681</v>
+        <v>1508733</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1872623</v>
+        <v>1873183</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>412783</v>
+        <v>412011</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>456841</v>
+        <v>458174</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>448160</v>
+        <v>447253</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>847274</v>
+        <v>844593</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>314975</v>
+        <v>314816</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>418694</v>
+        <v>418342</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>443723</v>
+        <v>444189</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>787226</v>
+        <v>786523</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>735701</v>
+        <v>734267</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>883337</v>
+        <v>883972</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>898978</v>
+        <v>899054</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1647390</v>
+        <v>1646125</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>431874</v>
+        <v>431901</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>480614</v>
+        <v>481189</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>474232</v>
+        <v>472940</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>890064</v>
+        <v>889226</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>331490</v>
+        <v>331231</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>437402</v>
+        <v>436550</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>466452</v>
+        <v>465469</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>823943</v>
+        <v>823134</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>759570</v>
+        <v>759246</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>912258</v>
+        <v>913578</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>933598</v>
+        <v>933701</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1704426</v>
+        <v>1703496</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2972697</v>
+        <v>2969289</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3146089</v>
+        <v>3148010</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3048662</v>
+        <v>3049572</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2992291</v>
+        <v>2994516</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3098886</v>
+        <v>3101164</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3298193</v>
+        <v>3299048</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3281381</v>
+        <v>3283633</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3247864</v>
+        <v>3253640</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6084845</v>
+        <v>6088898</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>6462486</v>
+        <v>6466893</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>6350080</v>
+        <v>6352352</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6270610</v>
+        <v>6271726</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3032984</v>
+        <v>3029355</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3210554</v>
+        <v>3209558</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3113603</v>
+        <v>3114597</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3084134</v>
+        <v>3081870</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3153468</v>
+        <v>3156580</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3356769</v>
+        <v>3356571</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>3337282</v>
+        <v>3337058</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3318223</v>
+        <v>3320610</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6165173</v>
+        <v>6169629</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>6549295</v>
+        <v>6547700</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>6435749</v>
+        <v>6438536</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>6387870</v>
+        <v>6384656</v>
       </c>
     </row>
     <row r="24">
